--- a/RQ3/result/GA/GA_3.xlsx
+++ b/RQ3/result/GA/GA_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F35FFB-85A1-4C18-9BD3-EB264951E530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2120D7-9258-4455-B32F-CDB85FA72E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -245,14 +233,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the difference between getDeclaredConstructors and getConstructors in the Class API?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -265,23 +245,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://stackoverflow.com/questions/17528954/performance-bufferedoutputstream-vs-filewriter</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/differences-between-hashmap-and-hashtable-in-java/</t>
-  </si>
-  <si>
-    <t>https://en.it1352.com/article/aa65646347574539b1d0d6cda0b8bf96.html</t>
-  </si>
-  <si>
-    <t>https://www.javatpoint.com/difference-between-stringbuffer-and-stringbuilder</t>
-  </si>
-  <si>
     <t>java.sql.SQLException.getNextException()</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.java67.com/2016/03/difference-between-filereader-vs.html</t>
   </si>
   <si>
     <t>Is there any performance difference between HashMap and LinkedHashMap for traversal through values() function? which perform better for iteratetion.</t>
@@ -292,14 +257,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/util/Scanner.html#nextLine()</t>
-  </si>
-  <si>
     <t>java.util.HashMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html</t>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -712,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,12 +688,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="46.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -765,23 +722,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -789,22 +731,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -812,11 +754,8 @@
       <c r="J2" s="1">
         <v>88</v>
       </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -824,22 +763,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -847,11 +786,8 @@
       <c r="J3" s="3">
         <v>180</v>
       </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -859,22 +795,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -882,17 +818,8 @@
       <c r="J4" s="1">
         <v>170</v>
       </c>
-      <c r="K4" s="1">
-        <v>366</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -900,22 +827,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -923,14 +850,8 @@
       <c r="J5" s="3">
         <v>122</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -938,22 +859,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -961,11 +882,8 @@
       <c r="J6" s="1">
         <v>43</v>
       </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -973,22 +891,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -996,14 +914,8 @@
       <c r="J7" s="3">
         <v>200</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1011,22 +923,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1034,17 +946,8 @@
       <c r="J8" s="1">
         <v>120</v>
       </c>
-      <c r="K8" s="1">
-        <v>174</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1052,22 +955,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" s="5">
         <v>3</v>
@@ -1075,11 +978,8 @@
       <c r="J9" s="5">
         <v>288</v>
       </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1087,22 +987,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1110,11 +1010,8 @@
       <c r="J10" s="1">
         <v>62</v>
       </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1122,22 +1019,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1145,14 +1042,8 @@
       <c r="J11" s="5">
         <v>120</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1160,22 +1051,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1183,17 +1074,8 @@
       <c r="J12" s="1">
         <v>120</v>
       </c>
-      <c r="K12" s="1">
-        <v>227</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1201,34 +1083,28 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
       </c>
       <c r="J13" s="5">
         <v>45</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" s="5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RQ3/result/GA/GA_3.xlsx
+++ b/RQ3/result/GA/GA_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2120D7-9258-4455-B32F-CDB85FA72E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F18A965-026E-4F78-B105-7840E3D2199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -266,6 +262,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +674,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -731,22 +731,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -763,22 +763,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -795,22 +795,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -827,22 +827,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -859,22 +859,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -891,22 +891,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -923,22 +923,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -955,22 +955,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5">
         <v>3</v>
@@ -987,22 +987,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1019,22 +1019,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1051,22 +1051,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1083,22 +1083,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
